--- a/УП.01 2023 41П Мухин Н.А/2_Основные/Сессия 2/Заявки CRM.xlsx
+++ b/УП.01 2023 41П Мухин Н.А/2_Основные/Сессия 2/Заявки CRM.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main\RDP\41П\лебедевааф\Desktop\УП.01 2023 41П Мухин Н.А\2_Основные\Сессия 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD8A66-3C79-47B5-A53D-E41A19EC9BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083CE9A8-AF12-4354-89C5-4EC250442C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист7" sheetId="7" r:id="rId2"/>
+    <sheet name="Applications" sheetId="7" r:id="rId2"/>
     <sheet name="Services" sheetId="6" r:id="rId3"/>
     <sheet name="ProblemTypes" sheetId="5" r:id="rId4"/>
     <sheet name="ServicesView" sheetId="4" r:id="rId5"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="77">
   <si>
     <t>номер заявки</t>
   </si>
@@ -232,13 +232,49 @@
   </si>
   <si>
     <t>NameServices</t>
+  </si>
+  <si>
+    <t>KodApplications</t>
+  </si>
+  <si>
+    <t>NimberApplications</t>
+  </si>
+  <si>
+    <t>DateOfCreation</t>
+  </si>
+  <si>
+    <t>PersonalAccount</t>
+  </si>
+  <si>
+    <t>Statuse</t>
+  </si>
+  <si>
+    <t>ServiceView</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>TypeEquipment</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>ProblemTypes</t>
+  </si>
+  <si>
+    <t>DescriptionProblem</t>
+  </si>
+  <si>
+    <t>ClosingDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -267,6 +303,19 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="EB Garamond"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -288,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -311,6 +360,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -550,19 +603,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -571,7 +624,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1337,144 +1390,1076 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A602AC-7283-4EBB-B490-41FCD10A7388}">
-  <dimension ref="G5:G29"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G31"/>
+      <selection activeCell="A2" sqref="A2:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G5" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G6" s="9">
-        <v>785493421</v>
-      </c>
-    </row>
-    <row r="7" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G7" s="9">
-        <v>785493429</v>
-      </c>
-    </row>
-    <row r="8" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G8" s="9">
-        <v>785493434</v>
-      </c>
-    </row>
-    <row r="9" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G9" s="9">
-        <v>785493424</v>
-      </c>
-    </row>
-    <row r="10" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G10" s="9">
-        <v>785493431</v>
-      </c>
-    </row>
-    <row r="11" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G11" s="9">
-        <v>785493427</v>
-      </c>
-    </row>
-    <row r="12" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G12" s="9">
-        <v>785493428</v>
-      </c>
-    </row>
-    <row r="13" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G13" s="9">
-        <v>785493453</v>
-      </c>
-    </row>
-    <row r="14" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G14" s="9">
-        <v>785493457</v>
-      </c>
-    </row>
-    <row r="15" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G15" s="9">
-        <v>785493464</v>
-      </c>
-    </row>
-    <row r="16" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G16" s="9">
-        <v>785493469</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="9">
-        <v>785493494</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="9">
-        <v>785493495</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="9">
-        <v>785493496</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G20" s="9">
-        <v>785493497</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G21" s="9">
-        <v>785493498</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G22" s="9">
-        <v>785493499</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G23" s="9">
-        <v>785493500</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G24" s="9">
-        <v>785493501</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G25" s="9">
-        <v>785493502</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G26" s="9">
-        <v>785493503</v>
-      </c>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G27" s="9">
-        <v>785493504</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G28" s="9">
-        <v>785493505</v>
-      </c>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G29" s="9">
-        <v>785493506</v>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44420</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44433</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44434</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44432</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="3">
+        <v>44433</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44433</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="3">
+        <v>44433</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44426</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D11">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D12">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D14">
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="9">
+        <v>2</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D15">
+        <v>78</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="9">
+        <v>2</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D16">
+        <v>79</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D18">
+        <v>81</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D19">
+        <v>82</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="9">
+        <v>2</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D20">
+        <v>83</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D21">
+        <v>84</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D22">
+        <v>85</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D23">
+        <v>86</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D24">
+        <v>87</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="9">
+        <v>2</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D25">
+        <v>88</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D26">
+        <v>89</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="9">
+        <v>2</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3">
+        <v>44436</v>
+      </c>
+      <c r="D27">
+        <v>90</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1483,7 +2468,7 @@
   <dimension ref="A2:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1501,7 +2486,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1558,7 +2543,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1567,7 +2552,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B1" t="s">
@@ -1731,7 +2716,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1742,7 +2727,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B1" t="s">
@@ -1792,7 +2777,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1803,7 +2788,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B1" t="s">
@@ -1895,7 +2880,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1905,7 +2890,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B1" t="s">
